--- a/biology/Botanique/Thrips_du_pois/Thrips_du_pois.xlsx
+++ b/biology/Botanique/Thrips_du_pois/Thrips_du_pois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frankliniella robusta
 Le thrips du pois ou thrips de la fève et du pois (Frankliniella robusta) est une espèce d'insectes thysanoptères de la famille des Thripidae.
@@ -513,9 +525,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon OEPP[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon OEPP :
 Frankliniella pisivora Uzel,
 Kakothrips pisivorus Westwood, 1880,
 Kakothrips robustus Uzel, 1895,
@@ -549,7 +563,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Frankliniella robusta mesure 1,8 mm de long. Sa forme est allongée et sa couleur brun foncé à noir. Il possède deux paires d'ailes très étroites.
 </t>
